--- a/data_table/Attribute.xlsx
+++ b/data_table/Attribute.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -76,6 +76,9 @@
     <t>describe</t>
   </si>
   <si>
+    <t>iconResId</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
   </si>
   <si>
     <t>描述</t>
+  </si>
+  <si>
+    <t>图标资源id</t>
   </si>
   <si>
     <t>攻击力</t>
@@ -1142,20 +1148,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="3" width="15.375" customWidth="1"/>
     <col min="4" max="4" width="17.375" customWidth="1"/>
     <col min="5" max="5" width="44.625" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1171,42 +1178,51 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:5">
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1217,13 +1233,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>15003701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1234,13 +1253,16 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>15003702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1251,13 +1273,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>15003703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1268,13 +1293,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>15003704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1285,13 +1313,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>15003705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1302,10 +1333,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>15003706</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1319,10 +1353,10 @@
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1336,10 +1370,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1353,10 +1387,10 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1370,10 +1404,10 @@
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="4:5">
